--- a/public_html/archivos/2012_1016_OFERTA_ACADEMICA.xlsx
+++ b/public_html/archivos/2012_1016_OFERTA_ACADEMICA.xlsx
@@ -13,38 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POSTGRADO!$A$4:$O$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$L$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$K$167</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Flor María Ramón</author>
-  </authors>
-  <commentList>
-    <comment ref="L5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso que la carrera se encuentre vigente para el segundo ciclo del 2013 seleccione "RATIFICADO" caso contrario"NO VIGENTE HABILITADO". Realizar este proceso solo para las carreras de Estado "VIGENTE" (columna k)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="495">
   <si>
     <t>CÓDIGO IES</t>
   </si>
@@ -137,9 +113,6 @@
   </si>
   <si>
     <t>SECRETARÍA NACIONAL DE EDUCACIÓN SUPERIOR, CIENCIA, TECNOLOGÍA E INNOVACIÓN</t>
-  </si>
-  <si>
-    <t>RATIFICAR EL ESTADO DE LA CARRERA PARA EL SEGUNDO CICLO DEL 2013 (PRÓXIMO EXAMEN SNNA)</t>
   </si>
   <si>
     <t>NO VIGENTE HABILITADO</t>
@@ -1538,7 +1511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1553,12 +1526,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1778,10 +1745,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1876,8 +1843,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2366,11 +2333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,17 +2346,16 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="7" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N1" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
@@ -2403,14 +2369,13 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2422,10 +2387,9 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2459,22 +2423,19 @@
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>17</v>
@@ -2489,27 +2450,27 @@
         <v>15</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>17</v>
@@ -2524,27 +2485,27 @@
         <v>15</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
@@ -2559,33 +2520,33 @@
         <v>15</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>14</v>
@@ -2594,34 +2555,34 @@
         <v>15</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
@@ -2629,34 +2590,34 @@
         <v>15</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
@@ -2664,104 +2625,104 @@
         <v>15</v>
       </c>
       <c r="I11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="D13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" s="8" t="s">
         <v>14</v>
       </c>
@@ -2769,34 +2730,34 @@
         <v>15</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="E15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G15" s="11" t="s">
         <v>14</v>
       </c>
@@ -2804,34 +2765,34 @@
         <v>15</v>
       </c>
       <c r="I15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="E16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G16" s="8" t="s">
         <v>14</v>
       </c>
@@ -2839,10 +2800,10 @@
         <v>15</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>16</v>
@@ -2850,22 +2811,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>14</v>
@@ -2874,10 +2835,10 @@
         <v>15</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>16</v>
@@ -2885,16 +2846,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>17</v>
@@ -2909,10 +2870,10 @@
         <v>15</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>16</v>
@@ -2920,22 +2881,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="E19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>14</v>
@@ -2944,10 +2905,10 @@
         <v>27</v>
       </c>
       <c r="I19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>23</v>
@@ -2955,22 +2916,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>14</v>
@@ -2979,10 +2940,10 @@
         <v>27</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>23</v>
@@ -2990,22 +2951,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="E21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>14</v>
@@ -3014,10 +2975,10 @@
         <v>27</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>23</v>
@@ -3025,22 +2986,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>14</v>
@@ -3049,10 +3010,10 @@
         <v>27</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>23</v>
@@ -3060,22 +3021,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="E23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>14</v>
@@ -3084,10 +3045,10 @@
         <v>27</v>
       </c>
       <c r="I23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>23</v>
@@ -3095,23 +3056,23 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="E24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G24" s="8" t="s">
         <v>14</v>
       </c>
@@ -3119,10 +3080,10 @@
         <v>15</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>16</v>
@@ -3130,23 +3091,23 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" s="11" t="s">
         <v>14</v>
       </c>
@@ -3154,10 +3115,10 @@
         <v>15</v>
       </c>
       <c r="I25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>16</v>
@@ -3165,22 +3126,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>14</v>
@@ -3189,10 +3150,10 @@
         <v>15</v>
       </c>
       <c r="I26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>16</v>
@@ -3200,16 +3161,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>19</v>
@@ -3224,10 +3185,10 @@
         <v>15</v>
       </c>
       <c r="I27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>16</v>
@@ -3235,13 +3196,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>24</v>
@@ -3259,10 +3220,10 @@
         <v>15</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>16</v>
@@ -3270,23 +3231,23 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="E29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="G29" s="11" t="s">
         <v>14</v>
       </c>
@@ -3294,10 +3255,10 @@
         <v>15</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>16</v>
@@ -3305,22 +3266,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>14</v>
@@ -3329,10 +3290,10 @@
         <v>15</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>16</v>
@@ -3340,16 +3301,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>19</v>
@@ -3364,10 +3325,10 @@
         <v>27</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>23</v>
@@ -3375,16 +3336,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>17</v>
@@ -3399,10 +3360,10 @@
         <v>15</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>16</v>
@@ -3410,23 +3371,23 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="G33" s="11" t="s">
         <v>14</v>
       </c>
@@ -3434,10 +3395,10 @@
         <v>15</v>
       </c>
       <c r="I33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>16</v>
@@ -3445,22 +3406,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>14</v>
@@ -3469,10 +3430,10 @@
         <v>15</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>16</v>
@@ -3480,16 +3441,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>17</v>
@@ -3504,10 +3465,10 @@
         <v>15</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>23</v>
@@ -3515,22 +3476,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>14</v>
@@ -3539,10 +3500,10 @@
         <v>15</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>16</v>
@@ -3550,16 +3511,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>12</v>
@@ -3574,10 +3535,10 @@
         <v>15</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>23</v>
@@ -3585,16 +3546,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>12</v>
@@ -3609,10 +3570,10 @@
         <v>27</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>23</v>
@@ -3620,16 +3581,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>17</v>
@@ -3644,10 +3605,10 @@
         <v>15</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>23</v>
@@ -3655,34 +3616,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>23</v>
@@ -3690,22 +3651,22 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>14</v>
@@ -3714,10 +3675,10 @@
         <v>15</v>
       </c>
       <c r="I41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>16</v>
@@ -3725,22 +3686,22 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>14</v>
@@ -3749,10 +3710,10 @@
         <v>15</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>23</v>
@@ -3760,22 +3721,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="E43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>14</v>
@@ -3784,10 +3745,10 @@
         <v>27</v>
       </c>
       <c r="I43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>23</v>
@@ -3795,22 +3756,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>14</v>
@@ -3819,10 +3780,10 @@
         <v>27</v>
       </c>
       <c r="I44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>23</v>
@@ -3830,22 +3791,22 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>14</v>
@@ -3854,10 +3815,10 @@
         <v>15</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>23</v>
@@ -3865,16 +3826,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>19</v>
@@ -3889,10 +3850,10 @@
         <v>15</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>23</v>
@@ -3900,16 +3861,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>21</v>
@@ -3924,10 +3885,10 @@
         <v>27</v>
       </c>
       <c r="I47" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>23</v>
@@ -3935,16 +3896,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>17</v>
@@ -3959,10 +3920,10 @@
         <v>15</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>23</v>
@@ -3970,34 +3931,34 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>16</v>
@@ -4005,22 +3966,22 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>14</v>
@@ -4029,10 +3990,10 @@
         <v>15</v>
       </c>
       <c r="I50" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>16</v>
@@ -4040,23 +4001,23 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="E51" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G51" s="11" t="s">
         <v>14</v>
       </c>
@@ -4064,10 +4025,10 @@
         <v>15</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>23</v>
@@ -4075,23 +4036,23 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="E52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G52" s="8" t="s">
         <v>14</v>
       </c>
@@ -4099,10 +4060,10 @@
         <v>15</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>23</v>
@@ -4110,23 +4071,23 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>187</v>
-      </c>
       <c r="E53" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G53" s="11" t="s">
         <v>14</v>
       </c>
@@ -4134,10 +4095,10 @@
         <v>15</v>
       </c>
       <c r="I53" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>23</v>
@@ -4145,23 +4106,23 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="E54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G54" s="8" t="s">
         <v>14</v>
       </c>
@@ -4169,10 +4130,10 @@
         <v>15</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>23</v>
@@ -4180,23 +4141,23 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>191</v>
-      </c>
       <c r="E55" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G55" s="11" t="s">
         <v>14</v>
       </c>
@@ -4204,10 +4165,10 @@
         <v>15</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>16</v>
@@ -4215,16 +4176,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>12</v>
@@ -4239,10 +4200,10 @@
         <v>15</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>23</v>
@@ -4250,22 +4211,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="E57" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>14</v>
@@ -4274,10 +4235,10 @@
         <v>27</v>
       </c>
       <c r="I57" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>23</v>
@@ -4285,16 +4246,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>17</v>
@@ -4309,10 +4270,10 @@
         <v>27</v>
       </c>
       <c r="I58" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>23</v>
@@ -4320,16 +4281,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>17</v>
@@ -4344,10 +4305,10 @@
         <v>27</v>
       </c>
       <c r="I59" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>23</v>
@@ -4355,22 +4316,22 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>14</v>
@@ -4379,10 +4340,10 @@
         <v>27</v>
       </c>
       <c r="I60" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>23</v>
@@ -4390,16 +4351,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>17</v>
@@ -4414,10 +4375,10 @@
         <v>27</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>23</v>
@@ -4425,23 +4386,23 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E62" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G62" s="8" t="s">
         <v>14</v>
       </c>
@@ -4449,10 +4410,10 @@
         <v>15</v>
       </c>
       <c r="I62" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>23</v>
@@ -4460,16 +4421,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>28</v>
@@ -4484,10 +4445,10 @@
         <v>15</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>16</v>
@@ -4495,16 +4456,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>17</v>
@@ -4519,10 +4480,10 @@
         <v>27</v>
       </c>
       <c r="I64" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>23</v>
@@ -4530,16 +4491,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>19</v>
@@ -4554,10 +4515,10 @@
         <v>27</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>23</v>
@@ -4565,22 +4526,22 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>14</v>
@@ -4589,10 +4550,10 @@
         <v>27</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>23</v>
@@ -4600,16 +4561,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>12</v>
@@ -4624,10 +4585,10 @@
         <v>27</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>23</v>
@@ -4635,16 +4596,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>17</v>
@@ -4659,10 +4620,10 @@
         <v>15</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>23</v>
@@ -4670,22 +4631,22 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E69" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>14</v>
@@ -4694,10 +4655,10 @@
         <v>27</v>
       </c>
       <c r="I69" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>23</v>
@@ -4705,23 +4666,23 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E70" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G70" s="8" t="s">
         <v>14</v>
       </c>
@@ -4729,10 +4690,10 @@
         <v>15</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>16</v>
@@ -4740,22 +4701,22 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>14</v>
@@ -4764,7 +4725,7 @@
         <v>27</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="12" t="s">
@@ -4773,16 +4734,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>17</v>
@@ -4797,10 +4758,10 @@
         <v>15</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>23</v>
@@ -4808,121 +4769,121 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="K73" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E74" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G74" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E75" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="G75" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>17</v>
@@ -4937,10 +4898,10 @@
         <v>15</v>
       </c>
       <c r="I76" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="K76" s="9" t="s">
         <v>16</v>
@@ -4948,23 +4909,23 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="E77" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="G77" s="11" t="s">
         <v>14</v>
       </c>
@@ -4972,10 +4933,10 @@
         <v>15</v>
       </c>
       <c r="I77" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>16</v>
@@ -4983,16 +4944,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>12</v>
@@ -5007,10 +4968,10 @@
         <v>15</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>16</v>
@@ -5018,23 +4979,23 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G79" s="11" t="s">
         <v>14</v>
       </c>
@@ -5042,10 +5003,10 @@
         <v>15</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>23</v>
@@ -5053,34 +5014,34 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="K80" s="9" t="s">
         <v>16</v>
@@ -5088,23 +5049,23 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E81" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G81" s="11" t="s">
         <v>14</v>
       </c>
@@ -5112,10 +5073,10 @@
         <v>15</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>23</v>
@@ -5123,16 +5084,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>17</v>
@@ -5147,10 +5108,10 @@
         <v>15</v>
       </c>
       <c r="I82" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>16</v>
@@ -5158,16 +5119,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>21</v>
@@ -5182,10 +5143,10 @@
         <v>15</v>
       </c>
       <c r="I83" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="K83" s="12" t="s">
         <v>16</v>
@@ -5193,23 +5154,23 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G84" s="8" t="s">
         <v>14</v>
       </c>
@@ -5217,10 +5178,10 @@
         <v>15</v>
       </c>
       <c r="I84" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K84" s="9" t="s">
         <v>16</v>
@@ -5228,16 +5189,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>17</v>
@@ -5252,10 +5213,10 @@
         <v>27</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>23</v>
@@ -5263,23 +5224,23 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F86" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G86" s="8" t="s">
         <v>14</v>
       </c>
@@ -5287,10 +5248,10 @@
         <v>15</v>
       </c>
       <c r="I86" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J86" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K86" s="9" t="s">
         <v>23</v>
@@ -5298,34 +5259,34 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="E87" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>23</v>
@@ -5333,23 +5294,23 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E88" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G88" s="8" t="s">
         <v>14</v>
       </c>
@@ -5357,10 +5318,10 @@
         <v>15</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>23</v>
@@ -5368,23 +5329,23 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E89" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G89" s="11" t="s">
         <v>14</v>
       </c>
@@ -5392,10 +5353,10 @@
         <v>15</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>16</v>
@@ -5403,23 +5364,23 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G90" s="8" t="s">
         <v>14</v>
       </c>
@@ -5427,10 +5388,10 @@
         <v>15</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>23</v>
@@ -5438,23 +5399,23 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D91" s="11" t="s">
-        <v>250</v>
-      </c>
       <c r="E91" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G91" s="11" t="s">
         <v>14</v>
       </c>
@@ -5462,10 +5423,10 @@
         <v>15</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>23</v>
@@ -5473,16 +5434,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>17</v>
@@ -5497,10 +5458,10 @@
         <v>27</v>
       </c>
       <c r="I92" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J92" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>23</v>
@@ -5508,16 +5469,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>12</v>
@@ -5532,10 +5493,10 @@
         <v>27</v>
       </c>
       <c r="I93" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>23</v>
@@ -5543,34 +5504,34 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C94" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J94" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J94" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>23</v>
@@ -5578,16 +5539,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>12</v>
@@ -5602,10 +5563,10 @@
         <v>15</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>16</v>
@@ -5613,16 +5574,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>12</v>
@@ -5637,10 +5598,10 @@
         <v>15</v>
       </c>
       <c r="I96" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J96" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="J96" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="K96" s="9" t="s">
         <v>16</v>
@@ -5648,16 +5609,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>17</v>
@@ -5672,10 +5633,10 @@
         <v>15</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J97" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K97" s="12" t="s">
         <v>23</v>
@@ -5683,16 +5644,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>17</v>
@@ -5707,10 +5668,10 @@
         <v>15</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K98" s="9" t="s">
         <v>23</v>
@@ -5718,16 +5679,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>17</v>
@@ -5742,10 +5703,10 @@
         <v>27</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K99" s="12" t="s">
         <v>23</v>
@@ -5753,16 +5714,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>17</v>
@@ -5777,10 +5738,10 @@
         <v>27</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K100" s="9" t="s">
         <v>23</v>
@@ -5788,16 +5749,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>21</v>
@@ -5812,10 +5773,10 @@
         <v>15</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J101" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>16</v>
@@ -5823,23 +5784,23 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E102" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G102" s="8" t="s">
         <v>14</v>
       </c>
@@ -5847,10 +5808,10 @@
         <v>15</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K102" s="9" t="s">
         <v>23</v>
@@ -5858,16 +5819,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>17</v>
@@ -5882,10 +5843,10 @@
         <v>15</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J103" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K103" s="12" t="s">
         <v>23</v>
@@ -5893,16 +5854,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>17</v>
@@ -5917,10 +5878,10 @@
         <v>15</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K104" s="9" t="s">
         <v>23</v>
@@ -5928,16 +5889,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C105" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>12</v>
@@ -5952,10 +5913,10 @@
         <v>15</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K105" s="12" t="s">
         <v>16</v>
@@ -5963,23 +5924,23 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G106" s="8" t="s">
         <v>14</v>
       </c>
@@ -5987,10 +5948,10 @@
         <v>15</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K106" s="9" t="s">
         <v>23</v>
@@ -5998,23 +5959,23 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C107" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D107" s="11" t="s">
-        <v>277</v>
-      </c>
       <c r="E107" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G107" s="11" t="s">
         <v>14</v>
       </c>
@@ -6022,10 +5983,10 @@
         <v>15</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K107" s="12" t="s">
         <v>23</v>
@@ -6033,23 +5994,23 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C108" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="E108" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F108" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G108" s="8" t="s">
         <v>14</v>
       </c>
@@ -6057,10 +6018,10 @@
         <v>15</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K108" s="9" t="s">
         <v>23</v>
@@ -6068,56 +6029,56 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E109" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="G109" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H109" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J109" s="11"/>
       <c r="K109" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E110" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F110" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G110" s="8" t="s">
         <v>14</v>
       </c>
@@ -6125,10 +6086,10 @@
         <v>15</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K110" s="9" t="s">
         <v>23</v>
@@ -6136,16 +6097,16 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>17</v>
@@ -6160,10 +6121,10 @@
         <v>15</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>23</v>
@@ -6171,23 +6132,23 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D112" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="G112" s="8" t="s">
         <v>14</v>
       </c>
@@ -6195,10 +6156,10 @@
         <v>15</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K112" s="9" t="s">
         <v>23</v>
@@ -6206,49 +6167,49 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C113" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>285</v>
-      </c>
       <c r="E113" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F113" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="G113" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J113" s="11"/>
       <c r="K113" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C114" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>17</v>
@@ -6263,10 +6224,10 @@
         <v>15</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K114" s="9" t="s">
         <v>23</v>
@@ -6274,22 +6235,22 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C115" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>14</v>
@@ -6298,10 +6259,10 @@
         <v>15</v>
       </c>
       <c r="I115" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J115" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>16</v>
@@ -6309,16 +6270,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>17</v>
@@ -6333,10 +6294,10 @@
         <v>15</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K116" s="9" t="s">
         <v>16</v>
@@ -6344,16 +6305,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>21</v>
@@ -6368,10 +6329,10 @@
         <v>15</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>16</v>
@@ -6379,16 +6340,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>17</v>
@@ -6403,10 +6364,10 @@
         <v>15</v>
       </c>
       <c r="I118" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J118" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J118" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K118" s="9" t="s">
         <v>16</v>
@@ -6414,22 +6375,22 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C119" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>14</v>
@@ -6438,10 +6399,10 @@
         <v>15</v>
       </c>
       <c r="I119" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J119" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J119" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K119" s="12" t="s">
         <v>16</v>
@@ -6449,34 +6410,34 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C120" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D120" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="E120" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J120" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="K120" s="9" t="s">
         <v>16</v>
@@ -6484,16 +6445,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>17</v>
@@ -6508,10 +6469,10 @@
         <v>15</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K121" s="12" t="s">
         <v>16</v>
@@ -6519,22 +6480,22 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>14</v>
@@ -6543,10 +6504,10 @@
         <v>15</v>
       </c>
       <c r="I122" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J122" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="K122" s="9" t="s">
         <v>16</v>
@@ -6554,16 +6515,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C123" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>19</v>
@@ -6578,10 +6539,10 @@
         <v>15</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K123" s="12" t="s">
         <v>16</v>
@@ -6589,34 +6550,34 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C124" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J124" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="K124" s="9" t="s">
         <v>16</v>
@@ -6624,23 +6585,23 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E125" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F125" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F125" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="G125" s="11" t="s">
         <v>14</v>
       </c>
@@ -6648,10 +6609,10 @@
         <v>15</v>
       </c>
       <c r="I125" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J125" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K125" s="12" t="s">
         <v>23</v>
@@ -6659,34 +6620,34 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J126" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J126" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="K126" s="9" t="s">
         <v>23</v>
@@ -6694,23 +6655,23 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E127" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F127" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="G127" s="11" t="s">
         <v>14</v>
       </c>
@@ -6718,10 +6679,10 @@
         <v>15</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K127" s="12" t="s">
         <v>23</v>
@@ -6729,22 +6690,22 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>14</v>
@@ -6753,10 +6714,10 @@
         <v>15</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K128" s="9" t="s">
         <v>23</v>
@@ -6764,16 +6725,16 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>21</v>
@@ -6788,10 +6749,10 @@
         <v>15</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K129" s="12" t="s">
         <v>16</v>
@@ -6799,34 +6760,34 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J130" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J130" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>23</v>
@@ -6834,16 +6795,16 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>17</v>
@@ -6858,10 +6819,10 @@
         <v>15</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K131" s="12" t="s">
         <v>16</v>
@@ -6869,34 +6830,34 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C132" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J132" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J132" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="K132" s="9" t="s">
         <v>23</v>
@@ -6904,22 +6865,22 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>14</v>
@@ -6928,10 +6889,10 @@
         <v>15</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K133" s="12" t="s">
         <v>23</v>
@@ -6939,13 +6900,13 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>24</v>
@@ -6963,10 +6924,10 @@
         <v>15</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K134" s="9" t="s">
         <v>23</v>
@@ -6974,16 +6935,16 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>21</v>
@@ -6998,10 +6959,10 @@
         <v>15</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K135" s="12" t="s">
         <v>23</v>
@@ -7009,23 +6970,23 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E136" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F136" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G136" s="8" t="s">
         <v>14</v>
       </c>
@@ -7033,10 +6994,10 @@
         <v>15</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>16</v>
@@ -7044,23 +7005,23 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E137" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F137" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G137" s="11" t="s">
         <v>14</v>
       </c>
@@ -7068,10 +7029,10 @@
         <v>15</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J137" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K137" s="12" t="s">
         <v>16</v>
@@ -7079,16 +7040,16 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>17</v>
@@ -7103,10 +7064,10 @@
         <v>15</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K138" s="9" t="s">
         <v>16</v>
@@ -7114,22 +7075,22 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>14</v>
@@ -7138,10 +7099,10 @@
         <v>15</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J139" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K139" s="12" t="s">
         <v>23</v>
@@ -7149,23 +7110,23 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E140" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F140" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F140" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G140" s="8" t="s">
         <v>14</v>
       </c>
@@ -7173,10 +7134,10 @@
         <v>15</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K140" s="9" t="s">
         <v>23</v>
@@ -7184,23 +7145,23 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C141" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D141" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>330</v>
-      </c>
       <c r="E141" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F141" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G141" s="11" t="s">
         <v>14</v>
       </c>
@@ -7208,10 +7169,10 @@
         <v>15</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K141" s="12" t="s">
         <v>23</v>
@@ -7219,23 +7180,23 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C142" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="E142" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F142" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G142" s="8" t="s">
         <v>14</v>
       </c>
@@ -7243,10 +7204,10 @@
         <v>15</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K142" s="9" t="s">
         <v>23</v>
@@ -7254,22 +7215,22 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E143" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>14</v>
@@ -7278,10 +7239,10 @@
         <v>15</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J143" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K143" s="12" t="s">
         <v>23</v>
@@ -7289,16 +7250,16 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>17</v>
@@ -7313,10 +7274,10 @@
         <v>15</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K144" s="9" t="s">
         <v>23</v>
@@ -7324,22 +7285,22 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>14</v>
@@ -7348,10 +7309,10 @@
         <v>15</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J145" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K145" s="12" t="s">
         <v>23</v>
@@ -7359,16 +7320,16 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>19</v>
@@ -7383,10 +7344,10 @@
         <v>15</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K146" s="9" t="s">
         <v>23</v>
@@ -7394,16 +7355,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E147" s="11" t="s">
         <v>19</v>
@@ -7418,10 +7379,10 @@
         <v>15</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K147" s="12" t="s">
         <v>23</v>
@@ -7429,16 +7390,16 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>17</v>
@@ -7453,10 +7414,10 @@
         <v>15</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K148" s="9" t="s">
         <v>23</v>
@@ -7464,16 +7425,16 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>17</v>
@@ -7488,10 +7449,10 @@
         <v>15</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J149" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K149" s="12" t="s">
         <v>23</v>
@@ -7499,23 +7460,23 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E150" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F150" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F150" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G150" s="8" t="s">
         <v>14</v>
       </c>
@@ -7523,10 +7484,10 @@
         <v>15</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K150" s="9" t="s">
         <v>16</v>
@@ -7534,23 +7495,23 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E151" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F151" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F151" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="G151" s="11" t="s">
         <v>14</v>
       </c>
@@ -7558,10 +7519,10 @@
         <v>15</v>
       </c>
       <c r="I151" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J151" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="J151" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="K151" s="12" t="s">
         <v>16</v>
@@ -7569,16 +7530,16 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C152" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>17</v>
@@ -7593,10 +7554,10 @@
         <v>15</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K152" s="9" t="s">
         <v>16</v>
@@ -7604,22 +7565,22 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C153" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>14</v>
@@ -7628,10 +7589,10 @@
         <v>15</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K153" s="12" t="s">
         <v>23</v>
@@ -7639,16 +7600,16 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>12</v>
@@ -7663,10 +7624,10 @@
         <v>15</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K154" s="9" t="s">
         <v>23</v>
@@ -7674,13 +7635,13 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>11</v>
@@ -7698,10 +7659,10 @@
         <v>15</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K155" s="12" t="s">
         <v>16</v>
@@ -7709,16 +7670,16 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>17</v>
@@ -7733,10 +7694,10 @@
         <v>15</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K156" s="9" t="s">
         <v>16</v>
@@ -7744,34 +7705,34 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C157" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D157" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="E157" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J157" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J157" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="K157" s="12" t="s">
         <v>16</v>
@@ -7779,22 +7740,22 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>14</v>
@@ -7803,10 +7764,10 @@
         <v>15</v>
       </c>
       <c r="I158" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J158" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="J158" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="K158" s="9" t="s">
         <v>23</v>
@@ -7814,22 +7775,22 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C159" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D159" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>360</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>14</v>
@@ -7838,10 +7799,10 @@
         <v>15</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K159" s="12" t="s">
         <v>23</v>
@@ -7849,23 +7810,23 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D160" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F160" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="G160" s="8" t="s">
         <v>14</v>
       </c>
@@ -7873,10 +7834,10 @@
         <v>15</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K160" s="9" t="s">
         <v>23</v>
@@ -7884,23 +7845,23 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E161" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F161" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F161" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G161" s="11" t="s">
         <v>14</v>
       </c>
@@ -7908,10 +7869,10 @@
         <v>15</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J161" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K161" s="12" t="s">
         <v>23</v>
@@ -7919,16 +7880,16 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>17</v>
@@ -7943,10 +7904,10 @@
         <v>15</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K162" s="9" t="s">
         <v>23</v>
@@ -7954,16 +7915,16 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>17</v>
@@ -7978,10 +7939,10 @@
         <v>15</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J163" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K163" s="12" t="s">
         <v>23</v>
@@ -7989,22 +7950,22 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>14</v>
@@ -8013,10 +7974,10 @@
         <v>15</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K164" s="9" t="s">
         <v>23</v>
@@ -8024,23 +7985,23 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E165" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F165" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F165" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G165" s="11" t="s">
         <v>14</v>
       </c>
@@ -8048,10 +8009,10 @@
         <v>15</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J165" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K165" s="12" t="s">
         <v>23</v>
@@ -8059,22 +8020,22 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>14</v>
@@ -8083,10 +8044,10 @@
         <v>15</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K166" s="9" t="s">
         <v>23</v>
@@ -8094,23 +8055,23 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E167" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F167" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F167" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="G167" s="14" t="s">
         <v>14</v>
       </c>
@@ -8118,10 +8079,10 @@
         <v>15</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J167" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K167" s="15" t="s">
         <v>23</v>
@@ -8129,23 +8090,19 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A5:L167"/>
+  <autoFilter ref="A5:K167"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 L5">
-      <formula1>$N$1:$N$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="Solo acepta &quot;RATIFICADO&quot; o &quot;NO VIGENTE HABILITADO&quot;" sqref="L6:L167">
-      <formula1>$N$1:$N$2</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2">
+      <formula1>$M$1:$M$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8189,7 +8146,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -8212,10 +8169,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -8233,60 +8190,60 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>373</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -8294,40 +8251,40 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>375</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -8335,40 +8292,40 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>381</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -8376,40 +8333,40 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>384</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>385</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -8417,40 +8374,40 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -8458,40 +8415,40 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -8499,16 +8456,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>17</v>
@@ -8517,22 +8474,22 @@
         <v>26</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -8540,40 +8497,40 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>397</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -8581,16 +8538,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>21</v>
@@ -8599,22 +8556,22 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -8622,16 +8579,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>403</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>17</v>
@@ -8640,22 +8597,22 @@
         <v>26</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -8663,16 +8620,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>17</v>
@@ -8681,22 +8638,22 @@
         <v>26</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -8704,16 +8661,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>407</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>17</v>
@@ -8722,22 +8679,22 @@
         <v>26</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -8745,16 +8702,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>17</v>
@@ -8763,22 +8720,22 @@
         <v>26</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -8786,16 +8743,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>409</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>410</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>17</v>
@@ -8807,19 +8764,19 @@
         <v>14</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J18" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -8827,16 +8784,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>17</v>
@@ -8845,22 +8802,22 @@
         <v>26</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -8868,16 +8825,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>415</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>12</v>
@@ -8886,22 +8843,22 @@
         <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -8909,16 +8866,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>419</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>17</v>
@@ -8927,22 +8884,22 @@
         <v>26</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -8950,16 +8907,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>17</v>
@@ -8968,22 +8925,22 @@
         <v>26</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -8991,16 +8948,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>425</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>17</v>
@@ -9012,19 +8969,19 @@
         <v>14</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -9032,16 +8989,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>428</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>17</v>
@@ -9050,22 +9007,22 @@
         <v>26</v>
       </c>
       <c r="G24" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="11" t="s">
         <v>429</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -9073,16 +9030,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>21</v>
@@ -9094,19 +9051,19 @@
         <v>14</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -9114,16 +9071,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>435</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>19</v>
@@ -9135,19 +9092,19 @@
         <v>14</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J26" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>437</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -9155,16 +9112,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>439</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>17</v>
@@ -9173,22 +9130,22 @@
         <v>26</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -9196,16 +9153,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>441</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>442</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>12</v>
@@ -9214,22 +9171,22 @@
         <v>13</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -9237,16 +9194,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>17</v>
@@ -9258,19 +9215,19 @@
         <v>14</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -9278,16 +9235,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -9296,22 +9253,22 @@
         <v>22</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -9319,40 +9276,40 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -9360,40 +9317,40 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -9401,37 +9358,37 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="K33" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -9440,16 +9397,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>460</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>17</v>
@@ -9458,22 +9415,22 @@
         <v>26</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -9481,16 +9438,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>17</v>
@@ -9502,19 +9459,19 @@
         <v>14</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -9522,40 +9479,40 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -9563,16 +9520,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>17</v>
@@ -9584,19 +9541,19 @@
         <v>14</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -9604,16 +9561,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>17</v>
@@ -9622,22 +9579,22 @@
         <v>26</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>473</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -9645,40 +9602,40 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>476</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -9686,16 +9643,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>17</v>
@@ -9704,22 +9661,22 @@
         <v>26</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>16</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -9727,40 +9684,40 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="E41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>483</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -9768,16 +9725,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>484</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>485</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>17</v>
@@ -9786,22 +9743,22 @@
         <v>26</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J42" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="11" t="s">
         <v>486</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>487</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -9809,40 +9766,40 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -9850,16 +9807,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>492</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>493</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>17</v>
@@ -9868,22 +9825,22 @@
         <v>26</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>16</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
